--- a/result/compare/depthmap/result-large.xlsx
+++ b/result/compare/depthmap/result-large.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\depthmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/depthmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85C18C2-3A9B-42D8-ABB0-0EBD7E5333D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE529B4-D4EF-6243-89C2-E8020AF177B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -3191,8 +3193,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8286016" y="2739968"/>
-          <a:ext cx="7385050" cy="4434943"/>
+          <a:off x="8909876" y="2950222"/>
+          <a:ext cx="8012084" cy="4772620"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3370,12 +3372,12 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>474656</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>87065</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>360613</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>683354</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>86788</xdr:rowOff>
     </xdr:to>
@@ -3394,8 +3396,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8856656" y="2955771"/>
-          <a:ext cx="5219957" cy="2509841"/>
+          <a:off x="9542902" y="3416374"/>
+          <a:ext cx="5155013" cy="2463396"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3427,15 +3429,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>285607</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>64619</xdr:rowOff>
+      <xdr:colOff>475321</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>30385</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>720189</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>172764</xdr:rowOff>
+      <xdr:rowOff>82698</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3452,8 +3454,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8667607" y="2754031"/>
-          <a:ext cx="5078778" cy="2438968"/>
+          <a:off x="9543567" y="3416374"/>
+          <a:ext cx="4366797" cy="2073108"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3784,16 +3786,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="171" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="11" width="10.90625" style="1"/>
+    <col min="10" max="11" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3831,7 +3833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3876,7 +3878,7 @@
         <v>0.65853658536585369</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>

--- a/result/compare/depthmap/result-large.xlsx
+++ b/result/compare/depthmap/result-large.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/depthmap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\depthmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE529B4-D4EF-6243-89C2-E8020AF177B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6BFD3F-58A0-4E6B-84D0-2F5EBBE32925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3193,8 +3194,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8909876" y="2950222"/>
-          <a:ext cx="8012084" cy="4772620"/>
+          <a:off x="8276491" y="2765181"/>
+          <a:ext cx="7375525" cy="4475284"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3786,35 +3787,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="171" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="11" width="10.83203125" style="1"/>
+    <col min="3" max="8" width="10.90625" style="2"/>
+    <col min="10" max="11" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I2" t="s">
@@ -3833,27 +3835,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>54</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>26</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>27</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>16</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G4" si="0">C3+F3</f>
         <v>70</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H4" si="1">D3+E3</f>
         <v>53</v>
       </c>
@@ -3878,27 +3880,27 @@
         <v>0.65853658536585369</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>49</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>16</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>37</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>21</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>

--- a/result/compare/depthmap/result-large.xlsx
+++ b/result/compare/depthmap/result-large.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/depthmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE17F7CB-5D16-1B4F-B483-241E54DAE0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49B3325-80D4-BB41-9D4D-6CD55226CFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Roc Space</a:t>
+              <a:t>ROC Space</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4060,7 +4060,7 @@
   <dimension ref="B2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
